--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CNH\VsCodeProjects\hana2024\hana2024\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED4AE9F-AE2A-46D9-A1BA-DBC879481641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52996502-5963-47D6-869C-1D77D24308BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37110" yWindow="1065" windowWidth="18330" windowHeight="12750" xr2:uid="{466DDEC0-316A-4E6F-AD3B-DEBF0ACF81B9}"/>
+    <workbookView xWindow="37830" yWindow="615" windowWidth="18330" windowHeight="12750" xr2:uid="{466DDEC0-316A-4E6F-AD3B-DEBF0ACF81B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예금 이자를 계산하여 주는 기준일자로 일정한 일자를 지정하여 처리. 결산 기준일예 이자 결산을 하면 다음 영업일에 예금익 원금에 원천징수 후 이자금액을 원금에 더하여 준다.</t>
-  </si>
-  <si>
     <t>이자 결산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,9 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이자가 붙음. 족, 예금 등에 대한 이자를 계산하여 지급하는 것을 말하며 [OO기간]이라 하면 이자지급 계산 기간. [OO단위]라 하면 이자를 지급하는 계산 화폐단위를 말한다.</t>
-  </si>
-  <si>
     <t>부리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,10 +366,6 @@
     <t xml:space="preserve">약속어음 </t>
   </si>
   <si>
-    <t>전자문서 형태로 작성되고 전자어음을 발행하고자 하는 자가 전자어음관리기관에 등록한 약속어음을 의미. 전자유가증권으로서 기존 실물어음과 같이 이용되며 발행, 배서, 권리행사 및 소멸 등의 모든 단계가 on-line에서 전자적인 방법으로 처리되는 어음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전자어음</t>
   </si>
   <si>
@@ -415,32 +405,16 @@
     <t>자금화</t>
   </si>
   <si>
-    <t>자기앞수표로 입금할 때 타점권의 이상 유무를 상대은행 앞으로 확인하여 처리하는 것. 조회필로 처리 시 자동적으로 입금 타점권을 자금화 처리하여 바로 지급이 가능해지므로 사고의 위험성 (지급제시 후 결제되지 않을 위험)이 있어, 우수고객에 한하여 책임자의 책임 하에 제한적으로 제공되며, 반드시 지급 은행 앞으로 정확히 조회하는 것이 중요하다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조회필</t>
   </si>
   <si>
-    <t>어음교환에 회부한 증권류가 자금화 되는 시간으로 교환 결제시간이 되면 부도(연장)통보가 없는 전일 입금한 타점권은 일괄 지급이 가능하게 된다.(자기앞수표 12시 20분, 그 외의 기타 타점권: 14시 20분)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교환결제시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어음 또는 수표의 소지인이 지급 또는 인수를 위하여 제시하여야 할 기간으로 소지인이 이 기간 내에 제시를 해태하면 前者에 대하여 소구를 할 수 없다. 수표의 지급제시기간은 발행일을 포함하여 11 일이며, 어음은 지급을 하여야 할 날에 이은 2 영업일이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지급제시기간</t>
   </si>
   <si>
-    <t>어음 수입은행이 지출은행과 협의를 통하여 부도통보시각을 일정시간까지 연장하는 것으로 부도연장을 받으면 입금 계좌에 그 사실을 등록하여 타점권이 지급되지 않도록 조치하여야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부도연장</t>
   </si>
   <si>
@@ -545,10 +519,6 @@
   </si>
   <si>
     <t>가수금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NET(네트)점이란 당점 이외의 당행 점포를 칭하며 NET(네트)거래란 본지점간 거래로 A지점 예금계좌를 B지점에서 거래하는 경우를 말한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1677,6 +1647,38 @@
   </si>
   <si>
     <t>Straight Through Processing</t>
+  </si>
+  <si>
+    <t>자기앞수표로 입금할 때 타점권의 이상 유무를 상대은행 앞으로 확인하여 처리하는 것. OOO로 처리 시 자동적으로 입금 타점권을 자금화 처리하여 바로 지급이 가능해지므로 사고의 위험성 (지급제시 후 결제되지 않을 위험)이 있어, 우수고객에 한하여 책임자의 책임 하에 제한적으로 제공되며, 반드시 지급 은행 앞으로 정확히 조회하는 것이 중요하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어음교환에 회부한 증권류가 자금화 되는 시간으로 OOOOOO이 되면 부도(연장)통보가 없는 전일 입금한 타점권은 일괄 지급이 가능하게 된다.(자기앞수표 12시 20분, 그 외의 기타 타점권: 14시 20분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어음 또는 수표의 소지인이 지급 또는 인수를 위하여 제시하여야 할 기간으로 소지인이 이 기간 내에 제시를 해태하면 前者에 대하여 소구를 할 수 없다. 수표의 OOOOOO은 발행일을 포함하여 11일이며, 어음은 지급을 하여야 할 날에 이은 2 영업일이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어음 수입은행이 지출은행과 협의를 통하여 부도통보시각을 일정시간까지 연장하는 것으로 OOOO을 받으면 입금 계좌에 그 사실을 등록하여 타점권이 지급되지 않도록 조치하여야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금 이자를 계산하여 주는 기준일자로 일정한 일자를 지정하여 처리. 결산 기준일에 이자 결산을 하면 다음 영업일에 예금익 원금에 원천징수 후 이자금액을 원금에 더하여 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이자가 붙음. 즉, 예금 등에 대한 이자를 계산하여 지급하는 것을 말하며 [OO기간]이라 하면 이자지급 계산 기간. [OO단위]라 하면 이자를 지급하는 계산 화폐단위를 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자문서 형태로 작성되고 OOOO을 발행하고자 하는 자가 전자어음관리기관에 등록한 약속어음을 의미. 전자유가증권으로서 기존 실물어음과 같이 이용되며 발행, 배서, 권리행사 및 소멸 등의 모든 단계가 on-line에서 전자적인 방법으로 처리되는 어음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NET(네트)점이란 당점 이외의 당행 점포를 칭하며 OOOO란 본지점간 거래로 A지점 예금계좌를 B지점에서 거래하는 경우를 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2145,7 +2147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096C328B-C1F6-48AC-844D-27A106788191}">
   <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2177,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2191,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -2205,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -2233,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -2247,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -2261,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -2277,7 +2281,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -2291,7 +2295,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -2333,14 +2337,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>453</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -2349,11 +2353,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>454</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2363,11 +2367,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2377,11 +2381,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2391,11 +2395,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2405,11 +2409,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2419,11 +2423,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2433,11 +2437,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2447,11 +2451,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2461,11 +2465,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2475,11 +2479,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2489,11 +2493,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2503,11 +2507,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2517,13 +2521,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2533,11 +2537,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2547,11 +2551,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2561,11 +2565,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2575,14 +2579,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -2591,11 +2595,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2605,11 +2609,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2619,13 +2623,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2635,14 +2639,14 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -2651,11 +2655,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2665,11 +2669,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2679,11 +2683,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2693,11 +2697,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2707,11 +2711,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2721,11 +2725,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2735,11 +2739,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2749,11 +2753,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2763,11 +2767,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2777,11 +2781,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>95</v>
+        <v>455</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2791,11 +2795,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2805,11 +2809,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2819,11 +2823,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2833,11 +2837,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2847,11 +2851,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2861,11 +2865,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>107</v>
+        <v>449</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2875,11 +2879,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>450</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2889,11 +2893,11 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>111</v>
+        <v>451</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2903,11 +2907,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>452</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2917,14 +2921,14 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -2933,11 +2937,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2947,11 +2951,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2961,11 +2965,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2975,14 +2979,14 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -2991,14 +2995,14 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -3007,11 +3011,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3021,11 +3025,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3035,14 +3039,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -3051,11 +3055,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3065,11 +3069,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3079,11 +3083,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3093,14 +3097,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>143</v>
+        <v>456</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -3109,11 +3113,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3123,11 +3127,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3137,11 +3141,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -3151,11 +3155,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -3165,11 +3169,11 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -3179,11 +3183,11 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -3193,11 +3197,11 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3207,11 +3211,11 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -3221,11 +3225,11 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -3235,11 +3239,11 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -3249,11 +3253,11 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -3263,13 +3267,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -3279,11 +3283,11 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -3293,11 +3297,11 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -3307,11 +3311,11 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -3321,11 +3325,11 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -3335,11 +3339,11 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -3349,11 +3353,11 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -3363,11 +3367,11 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -3377,17 +3381,17 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3395,14 +3399,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F87" s="3"/>
     </row>
@@ -3411,11 +3415,11 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -3425,17 +3429,17 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3443,14 +3447,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F90" s="3"/>
     </row>
@@ -3459,17 +3463,17 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3477,17 +3481,17 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3495,11 +3499,11 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -3509,17 +3513,17 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3527,11 +3531,11 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -3541,11 +3545,11 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3555,11 +3559,11 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3569,11 +3573,11 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3583,11 +3587,11 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3597,17 +3601,17 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3615,11 +3619,11 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3629,14 +3633,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F102" s="1"/>
     </row>
@@ -3645,11 +3649,11 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -3659,11 +3663,11 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -3673,11 +3677,11 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -3687,11 +3691,11 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -3701,11 +3705,11 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -3715,11 +3719,11 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -3729,11 +3733,11 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -3743,11 +3747,11 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -3757,11 +3761,11 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3771,14 +3775,14 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F112" s="1"/>
     </row>
@@ -3787,11 +3791,11 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -3801,11 +3805,11 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -3815,11 +3819,11 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -3829,11 +3833,11 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -3843,11 +3847,11 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -3857,11 +3861,11 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -3871,11 +3875,11 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -3885,11 +3889,11 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -3899,11 +3903,11 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -3913,14 +3917,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F122" s="1"/>
     </row>
@@ -3929,14 +3933,14 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F123" s="1"/>
     </row>
@@ -3945,14 +3949,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F124" s="1"/>
     </row>
@@ -3961,14 +3965,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F125" s="1"/>
     </row>
@@ -3977,11 +3981,11 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -3991,11 +3995,11 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -4005,11 +4009,11 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -4019,11 +4023,11 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -4033,11 +4037,11 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -4047,11 +4051,11 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -4061,11 +4065,11 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -4075,11 +4079,11 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -4089,14 +4093,14 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F134" s="1"/>
     </row>
@@ -4105,14 +4109,14 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F135" s="1"/>
     </row>
@@ -4121,14 +4125,14 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F136" s="1"/>
     </row>
@@ -4137,11 +4141,11 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -4151,14 +4155,14 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F138" s="1"/>
     </row>
@@ -4167,11 +4171,11 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -4181,14 +4185,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F140" s="1"/>
     </row>
@@ -4197,14 +4201,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F141" s="1"/>
     </row>
@@ -4213,14 +4217,14 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F142" s="1"/>
     </row>
@@ -4229,14 +4233,14 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F143" s="1"/>
     </row>
@@ -4245,14 +4249,14 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F144" s="1"/>
     </row>
@@ -4261,14 +4265,14 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F145" s="1"/>
     </row>
@@ -4277,11 +4281,11 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -4291,14 +4295,14 @@
         <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F147" s="1"/>
     </row>
@@ -4307,14 +4311,14 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F148" s="1"/>
     </row>
@@ -4323,17 +4327,17 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4341,11 +4345,11 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -4355,17 +4359,17 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4373,14 +4377,14 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F152" s="3"/>
     </row>
@@ -4389,11 +4393,11 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="3"/>
@@ -4403,14 +4407,14 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F154" s="3"/>
     </row>
@@ -4419,14 +4423,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F155" s="3"/>
     </row>
@@ -4435,11 +4439,11 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -4449,11 +4453,11 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
@@ -4463,14 +4467,14 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F158" s="3"/>
     </row>
@@ -4479,14 +4483,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F159" s="3"/>
     </row>
@@ -4495,17 +4499,17 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4513,14 +4517,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F161" s="3"/>
     </row>
@@ -4529,14 +4533,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F162" s="3"/>
     </row>
@@ -4545,11 +4549,11 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -4559,14 +4563,14 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F164" s="3"/>
     </row>
@@ -4575,17 +4579,17 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4593,14 +4597,14 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F166" s="3"/>
     </row>
@@ -4609,14 +4613,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F167" s="3"/>
     </row>
@@ -4625,14 +4629,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F168" s="3"/>
     </row>
@@ -4641,11 +4645,11 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -4655,11 +4659,11 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -4669,11 +4673,11 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -4683,14 +4687,14 @@
         <v>171</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F172" s="1"/>
     </row>
@@ -4699,11 +4703,11 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -4713,14 +4717,14 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F174" s="1"/>
     </row>
@@ -4729,14 +4733,14 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F175" s="1"/>
     </row>
@@ -4745,17 +4749,17 @@
         <v>175</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4763,14 +4767,14 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F177" s="1"/>
     </row>
@@ -4779,14 +4783,14 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F178" s="1"/>
     </row>
@@ -4795,14 +4799,14 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F179" s="1"/>
     </row>
@@ -4811,14 +4815,14 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F180" s="1"/>
     </row>
@@ -4827,14 +4831,14 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F181" s="1"/>
     </row>
@@ -4843,14 +4847,14 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F182" s="1"/>
     </row>
@@ -4859,14 +4863,14 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F183" s="1"/>
     </row>
@@ -4875,14 +4879,14 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F184" s="1"/>
     </row>
@@ -4891,11 +4895,11 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -4905,11 +4909,11 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -4919,11 +4923,11 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -4933,11 +4937,11 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -4947,11 +4951,11 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CNH\VsCodeProjects\hana2024\hana2024\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CNH\VsCodeProjects\hana2024\hana2024\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52996502-5963-47D6-869C-1D77D24308BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2348F9EC-E05F-4BB2-B3B1-CCAE2A3400B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37830" yWindow="615" windowWidth="18330" windowHeight="12750" xr2:uid="{466DDEC0-316A-4E6F-AD3B-DEBF0ACF81B9}"/>
+    <workbookView xWindow="38535" yWindow="2070" windowWidth="18330" windowHeight="9825" xr2:uid="{466DDEC0-316A-4E6F-AD3B-DEBF0ACF81B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="548">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,17 +218,9 @@
     <t>제 사고신고, 전결한도 초과 등 반드시 책임자의 사전 확인이 필요한 거래를 확인한 후 승인하여 주는 것을 말하며, 당행은 승인 대상거래가 거래되면 자동적으로 책임자 단말기에 표시되고 책임자가 승인키를 입력하면 거래가 처리되는 시스템을 채택하고 있다.</t>
   </si>
   <si>
-    <t>책임자 사전확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거래를 위하여는 책임자의 사전승인이 필요하지 아니하나 단말거래 후에 책임자의 확인이 필요한 거래</t>
   </si>
   <si>
-    <t>책임자 사후확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일정요건이 갖추어 지지 않은 상태에서 업무가 처리되는 것으로 무통장.무인감 등의 가전표 상태로 예금을 지급하는 것을 말하며 이는 원칙적으로 금지하나 다만, 부득이한 경우에는 반드시 예금주 본인임을 확인하고 예금주가 자필로 작성한 예금청구서를 받아 감사통할책임자의 사전확인 및 영업점장의 사전 승인을 득하여 취급할 수 있다. (23년 11월부터 개인의 경우 취급불가함)</t>
   </si>
   <si>
@@ -647,9 +639,6 @@
   </si>
   <si>
     <t>무인</t>
-  </si>
-  <si>
-    <t>인지세법에 의하여 재산권의 창설ㆍ이전ㆍ변경 또는 소멸을 증명하거나 재산권에 관한 추인 또는 승인을 증명하는 문서로서 과세대상이 되는 증서로서 통장, 장부마다 소정액의 인지를 붙이도록 되어 있다. 여신업무에서는 금전소비대차계약과 관련된 대출거래약정서, 채무인수약정서 등이 과세대상 문서이다.</t>
   </si>
   <si>
     <t>인지</t>
@@ -818,9 +807,6 @@
   </si>
   <si>
     <t>예상치 못한 손실에 대비하여 보유해야 하는 소요자기자본의 기회비용</t>
-  </si>
-  <si>
-    <t>자본비용을</t>
   </si>
   <si>
     <t>은행의 인건비 및 물건비 등을 원가배분 방식을 적용해 산정한 비용</t>
@@ -1025,13 +1011,6 @@
     <t>Foreign exchange business</t>
   </si>
   <si>
-    <t>외국통화, 외국통화로 표시된 지급수단, 그 밖에 표시통화에 관계없이 외국에서 사용할 수 있는 지급수단
-국제거래에서 대차관계를 결제하는데 사용하는 지급수단
-정부화폐, 은행권, 주화, 수표(Check, T/C, D/D), 우편환, 신용장, 환어음, 약속어음, 우편 또는 전신에 의한 지급지 시(T/T) 등
-지급수단 중 대외지급수단이 아닌 것을 내국지급수단이라 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대외지급수단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1091,14 +1070,7 @@
     <t>외화채권</t>
   </si>
   <si>
-    <t>예금 신탁 보증 대차 등으로 생기는 금전 등의 지급을 청구할 수 있는 권리로서 통화나 지급수단에 해당되지 않으 며 귀금속이나 증권에 해당되지 않는 것</t>
-  </si>
-  <si>
     <t>채권</t>
-  </si>
-  <si>
-    <t>외국환관리법의 규정에 의하여 재무부장관의 인가를 받아 외국환업무를 영위하는 은행을 외국환은행이라 한다. 외 국환은행은 수입신용장의 개설, 대외외화표시 지급보증, 대외예치환거래계약의 체결 및 외화자금의 보유 등 외국 과 직접 대외거래를 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>외국환은행</t>
@@ -1324,10 +1296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코레스 은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>외환거래의 이동 방향에 따라 구분한 것으로서, 외국환거래의 시발점이 되는 은행</t>
   </si>
   <si>
@@ -1575,9 +1543,6 @@
     <t>Payment Order</t>
   </si>
   <si>
-    <t>차기지시 또는 차기수권이라 하며, 수권이란 일정한 권한을 부여한다는 의미이므로 출금할 권한을 준다는 의사표시이다.</t>
-  </si>
-  <si>
     <t>차기지시</t>
   </si>
   <si>
@@ -1678,6 +1643,434 @@
   </si>
   <si>
     <t>NET(네트)점이란 당점 이외의 당행 점포를 칭하며 OOOO란 본지점간 거래로 A지점 예금계좌를 B지점에서 거래하는 경우를 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책임자 사전승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책임자 사후승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OO세법에 의하여 재산권의 창설ㆍ이전ㆍ변경 또는 소멸을 증명하거나 재산권에 관한 추인 또는 승인을 증명하는 문서로서 과세대상이 되는 증서로서 통장, 장부마다 소정액의 인지를 붙이도록 되어 있다. 여신업무에서는 금전소비대차계약과 관련된 대출거래약정서, 채무인수약정서 등이 과세대상 문서이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자본비용율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correspondent Bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매매, 교환, 임대차, 사용대차, 증여 등을 원인으로 국내에서 외국으로 물품을 이동하는 것 (우리나라 선박에 의하여 외국에서 채취 또는 포획한 광물 또는 수산물을 외국에 매도하는 것을 포함)
+유상으로 외국에서 외국으로 물품을 이동하는 것으로서 산업통상부장관이 정하여 고시하는 기준에 해당하는 것 (외국인도수출)
+관세법 제 196조에 따른 보세판매장에서 외국인에게 국내에서 생산(제조•가공•수리•제조 또는 개조하는 것)된 물품을 매도하는 것
+거주자가 비거주자에게 대외무역법 시행령에서 정하는 용역을 산업통상부장관이 정하여 고시하는 방법으로 제공하는것
+거주자가 비거주자에게 전자적 형태의 무체물을 정보통신망을 통한 전송, 기타 산업통상자원부장관이 정하여 고시 하는 방법으로 인도하는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매매, 교환, 임대차, 사용대차, 증여 등을 원인으로 외국에서 국내로 물품을 이동하는 것
+유상으로 외국에서 외국으로 물품을 인수하는 것으로서 산업통상부장관이 정하여 고시하는 기준에 해당하는 것 (외국인수수입)
+비거주자가 거주자에게 산업통상자원부장관이 정하여 고시하는 방법으로 용역을 제공하는 것
+비거주자가 거주자에게 정보통신망을 통한 전송과 그 밖에 산업통상자원부장관이 정하여 고시하는 방법에 따른 전자적 형태의 무체물을 인도하는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수출입 대금은 수출상 및 수입상 당사자간에 외국환은행등을 통한 해외 송금 방법으로 결제하고, 무역서류는 국제특사 배달 등을 통하여 당사자간에 직접 송부한다. 송금의 시기에 따라 사전송금방식과 사후 송금방식으로 구분</t>
+  </si>
+  <si>
+    <t>송금방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remittance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수술상은 수입상에게 물품을 발송 후, 수입상을 지급인으로 하는 환어음과 계약서에 명시된 각종의 서류를 수출상의 거래 은행을 통하여 수입상 거래 은행 앞 송부하고, 추후 수입상이 거래은행 앞으로 대금결제를 하면 수출상은 그 대금을 회수</t>
+  </si>
+  <si>
+    <t>추심방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「개설의뢰인의 요청에 의하여 개설은행이 수익자의 일치하는 제시에 대하여 결제(honour)하겠다는 확약」으로서 취소가 불가능한 모든 약정을 의미.
+공공성을 가진 은행이 개입하여 수익자(수출상)과 개설의뢰인(수입상)간의 신용을 더욱 확고하게 하여 거래규모의 확대와 원활한 거래를 도모하기 위한 수단의 하나임.
+개설의뢰인(수입상)의 지시에 따라 은행이 신용장을 개설하고 수익자(수출상)은 이에 명기된 제조건에 일치하는 서류를 제시하면 그 서류와 상환으로 수출대금을 회수하며 개설의뢰인(수입상)은 상품입수를 원활히 할 수 있는 은행 의 지급확약서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용장방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Documentary Credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무역 자동화에서 필수적으로 요구되는 첨단의 정보통신기술로서 무역 업무를 컴퓨터 등 정보처리능력을 가진 장치간에 전기통신설비를 이동하여 전자문서를 전송, 처리 또는 보관하는 방식이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electronic data interchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무역관련 법령에서 정한 무역업무 등을 종이문서로 작성된 수출입 관련 서류를 인편 또는 우편으로 전달하는 대신에, 무 역업체와 은행간에 표준화된 전자문서를 교환하여 업무를 처리하는 거래를 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무역EDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무역Electronic Data Interchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무역조건의 해석에 관한 국제규칙 (International rules for the interpretation of trade terms)의 약칭이다. 국내 그리고 국제 물품 매매계약에서 널리 사용되는 정형거래조건을 규정하였으며 국제상업회의소(ICC)가 1936년 최초 제정한 이래 주기적으로 개정 되어 현재 INCOTERMS2020 이 사용되고 있다. 이 규칙은 계약 당사자의 합의에 의하여 물품매매 계약조건으로 채택이 된 경우에만 매매당사자를 구속할 수 있으며, 오늘날의 무역거래에서는 대부분 인코텀스를 채택 하여 이용하고 있다.
+ex) EXW, FCA, FAS, FOB, CFR, CIF, CPT, CIP, DAP, DPU, DDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCOTERMS</t>
+  </si>
+  <si>
+    <t>개설의뢰인의 신청 또는 그 자신을 위하여 신용장을 개설한 은행을 의미.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issuing bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개설은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무역거래에서 신용장 업무를 취급할 때의 준수사항과 해석기준을 정한 국제적인 통일규칙. 즉, 국가마다 다른 제도와 상관습, 교통과 통신의 취약성, 환거래를 위한 금융기관 여건의 미조성 등으로 인해 초래되는 국제상거래의 혼란을 막기 위하여 신용장을 국제적으로 통일시킨 규칙.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCP 신용장통일규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniform Customs and Practice for Documentary Credits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개설은행의 요청에 따라 신용장을 통지하는 은행을 의미.</t>
+  </si>
+  <si>
+    <t>Advising Bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통지은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용장 개설을 신청한 당사자를 의미.</t>
+  </si>
+  <si>
+    <t>Applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개설의뢰인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCP600의 규칙이 적용되는 행위가 이루어지는 장소에서 은행이 통상적으로 영업하는 날을 의미.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Banking DAY</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행영업일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용장 개설을 통하여 이익을 받는 당사자를 말하며 통상 수출상(Exporter)이 수익자가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beneficiary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용장 조건, 적용 가능한 범위 내에서의 UCP600의 규칙의 규정, 그리고 국제표준은행관행에 따른 제시를 의미.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complying Presentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일치하는 제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일치하는 제시에 대하여 결제(honour) 또는 매입하겠다는 개설은행의 확약에 추가하여 확인은행이 하는 독립적인 확약을 의미.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개설은행의 수권 또는 요청에 의하여 신용장에 확인을 추가한 은행을 의미.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirming bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제시된 선적서류가 신용장조건과 불일치한 것을 말한다. 신용장 조건에 불일치한 선적서류가 제시된 경우 개설은행은 대금 지급을 거절할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용장 조건 불일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discrepancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일치하는 제시에 대하여 지정은행이, 지정은행에 상환하여야 하는 은행 영업일 또는 그 전에 대금을 지급함으로써 또는 대금 지급에 동의함으로써 환어음 (지정은행이 아닌 은행 앞으로 발행된) 서류를 매수하는 것을 의미.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negotiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용장이 이용가능한 은행을 의미하고, 어느 은행에서나 이용가능한 경우에는 모든 은행을 의미한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nominated bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용장에 의하여 이루어지는 개설은행 또는 지정은행에 대한 서류의 인도 또는 그렇게 인도된 그 서류 자체를 의미한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서류를 OO하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제시를 하는 수익자, 은행 또는 다른 당사자를 의미.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제시자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개설은행이 수익자가 발행한 환어음에 선하증권 등의 운송서류를 첨부한 것을 조건으로 하여 지급, 인수 또는 매입할 것을 확약하는 신용장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화환신용장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>documentary credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용장에 의해 발행되는 환어음에 온송서류가 첨부되어 있지 않은 무담보어음(Clean Bi)인 경우에도 어음을 지급, 인수 또는 매입할 것을 확약하는 신용장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무화환신용장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인(어음 소지인)이 지급인에 대하여 어음을 제시할 때 지급되는 어음. 어음상의 기재로는 일람 즉시 또는 제시 즉시 등으로 표시하면 되며 만기의 기재가 없는것은 일람출급인 것으로 간주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일람불어음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sight draft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반적으로 무역결제에 있어 어음의 지급기한을 뜻하며 이 기한부 어음을 "000 빌 (___ bil)"이라고 한다. 즉 어음의 지급방법 종 일람급(at sight)이 아닌 것으로 지급인이 지급약속을 하고 일정기간 (통상 30일, 60일, 90일, 150일)후에 지급하는 방식이다. 어음의 지급인인 수입상은 000  기간만큼 수입상품대금의 지급이 연기되므로 수입상품을 매각하여 그 회수대금으로 어음결제를 할 수있는 여유가 있으므로 그만큼 무역결제가 원활하여진다. 한편 수출상, 즉 어음발행인은 000  기간만큼 대금회수를 유예하므로 수입상에 대하여 해당기간 동안 신용을 제공하는 것이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유산스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기한부 환어음의 지급인(Drawee)이 만기에 그 대금을 정히 지급할 것임을 약속하는 법적인 행위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acceptance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일람지급에 있어서는 수입상이 선적서류를 받자마자 수입대금을 지급하지만, 000 에 있어서는 선적서류를 먼저 수령하고 일정기간 후에 수입대금도 지급하겠다는 의사표시 족 인수만 하고 대금지급은 일정기간 후에 하게 된다. 기한부 신용장과 D/A가 이에 속한다. 다만 신용장 동일규칙하에서 000 신용장이라 하면 환어음이 발행되지 않는 기한부신용장을 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deferred payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행이 단기무역신용을 제공하는 방법 중의 하나로 수출입 대금결제를 워해 발양된 환어음을 은행이 지급인으로서 인수하고 서명한 어음. 이는 은행이 어음상의 지급의무를 부담한 것이므로 신용도가 높으며 어음의 기간은 보통 30일에서 180일 사이. 따라서 000000은 신중기업어음((P)이나 양도성예금중서(CD) ((D) 등과 등과 함께 함께 높은 신용도와 유동성을 갖춘 단기금융상품으로 인식됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행인수어음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 은행이 자기은행 앞으로 발행된 기한부어음을 어음의 만기일에 지급하겠다고 인수한 어음을 000000이라 하는데, 000000 000, 즉 B/A rate는 이러한 B/A의 할인율을 말한다. B/A rate는 매일 B/A 시장에서의 실세울에 의거 결정되는 30일, 60일 , 90일, 120일, 150일, 180일의 만기에 따라 장기일수록 다소 높고 은행에 따라 약간의 차이가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/A RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행인수어음 할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국통화, 외국통화로 표시된 지급수단, 그 밖에 표시통화에 관계없이 외국에서 사용할 수 있는 지급수단
+국제거래에서 대차관계를 결제하는데 사용하는 지급수단
+정부화폐, 은행권, 주화, 수표(Check, T/C, D/D), 우편환, 신용장, 환어음, 약속어음, 우편 또는 전신에 의한 지급지 시(T/T) 등
+지급수단 중 OOOOOO이 아닌 것을 내국지급수단이라 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금 신탁 보증 대차 등으로 생기는 금전 등의 지급을 청구할 수 있는 권리로서 통화나 지급수단에 해당되지 않으며 귀금속이나 증권에 해당되지 않는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국환관리법의 규정에 의하여 재무부장관의 인가를 받아 외국환업무를 영위하는 은행을 OOOOO이라 한다. OOOOO은 수입신용장의 개설, 대외외화표시 지급보증, 대외예치환거래계약의 체결 및 외화자금의 보유 등 외국 과 직접 대외거래를 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOOO 또는 차기수권이라 하며, 수권이란 일정한 권한을 부여한다는 의미이므로 출금할 권한을 준다는 의사표시이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1685,7 +2078,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1763,6 +2156,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic Semilight"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1786,7 +2186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1810,6 +2210,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2145,10 +2548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096C328B-C1F6-48AC-844D-27A106788191}">
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2181,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2195,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -2209,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -2237,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -2251,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -2265,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -2281,7 +2684,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -2295,7 +2698,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -2337,7 +2740,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -2353,7 +2756,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -2555,7 +2958,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>448</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2565,11 +2968,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>449</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2579,14 +2982,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -2595,11 +2998,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2609,11 +3012,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2623,13 +3026,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2639,14 +3042,14 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -2655,11 +3058,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2669,11 +3072,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2683,11 +3086,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2697,11 +3100,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2711,11 +3114,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2725,11 +3128,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2739,11 +3142,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2753,11 +3156,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2767,11 +3170,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2781,11 +3184,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2795,11 +3198,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2809,11 +3212,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2823,11 +3226,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2837,11 +3240,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2851,11 +3254,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2865,11 +3268,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2879,11 +3282,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2893,11 +3296,11 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2907,11 +3310,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2921,14 +3324,14 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -2937,11 +3340,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2951,11 +3354,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2965,11 +3368,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2979,14 +3382,14 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -2995,14 +3398,14 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -3011,11 +3414,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3025,11 +3428,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3039,14 +3442,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -3055,11 +3458,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3069,11 +3472,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3083,11 +3486,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3097,14 +3500,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -3113,11 +3516,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3127,11 +3530,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3141,11 +3544,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -3155,11 +3558,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -3169,11 +3572,11 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -3183,11 +3586,11 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -3197,11 +3600,11 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3211,11 +3614,11 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -3225,11 +3628,11 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -3239,11 +3642,11 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -3253,11 +3656,11 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -3267,13 +3670,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -3283,11 +3686,11 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -3297,11 +3700,11 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -3311,11 +3714,11 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -3325,11 +3728,11 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -3339,11 +3742,11 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -3353,11 +3756,11 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -3367,11 +3770,11 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -3381,17 +3784,17 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>177</v>
+        <v>450</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3399,14 +3802,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F87" s="3"/>
     </row>
@@ -3415,11 +3818,11 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -3429,17 +3832,17 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3447,14 +3850,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F90" s="3"/>
     </row>
@@ -3463,17 +3866,17 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3481,17 +3884,17 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3499,11 +3902,11 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -3513,17 +3916,17 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3531,11 +3934,11 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -3545,11 +3948,11 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3559,11 +3962,11 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3573,11 +3976,11 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3587,11 +3990,11 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3601,17 +4004,17 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3619,11 +4022,11 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3633,14 +4036,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F102" s="1"/>
     </row>
@@ -3649,11 +4052,11 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>227</v>
+        <v>451</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -3663,11 +4066,11 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -3677,11 +4080,11 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -3691,11 +4094,11 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -3705,11 +4108,11 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -3719,11 +4122,11 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -3733,11 +4136,11 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -3747,11 +4150,11 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -3761,11 +4164,11 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3775,14 +4178,14 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F112" s="1"/>
     </row>
@@ -3791,11 +4194,11 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -3805,11 +4208,11 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -3819,11 +4222,11 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -3833,11 +4236,11 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -3847,11 +4250,11 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -3861,11 +4264,11 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -3875,11 +4278,11 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -3889,11 +4292,11 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -3903,11 +4306,11 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -3917,14 +4320,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F122" s="1"/>
     </row>
@@ -3933,14 +4336,14 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F123" s="1"/>
     </row>
@@ -3949,14 +4352,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F124" s="1"/>
     </row>
@@ -3965,14 +4368,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>274</v>
+        <v>544</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F125" s="1"/>
     </row>
@@ -3981,11 +4384,11 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -3995,11 +4398,11 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -4009,11 +4412,11 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -4023,11 +4426,11 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -4037,11 +4440,11 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -4051,11 +4454,11 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -4065,11 +4468,11 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -4079,11 +4482,11 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>291</v>
+        <v>545</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -4093,14 +4496,14 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>293</v>
+        <v>546</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F134" s="1"/>
     </row>
@@ -4109,14 +4512,14 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F135" s="1"/>
     </row>
@@ -4125,14 +4528,14 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F136" s="1"/>
     </row>
@@ -4141,11 +4544,11 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -4155,14 +4558,14 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F138" s="1"/>
     </row>
@@ -4171,11 +4574,11 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -4185,14 +4588,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F140" s="1"/>
     </row>
@@ -4201,14 +4604,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F141" s="1"/>
     </row>
@@ -4217,14 +4620,14 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F142" s="1"/>
     </row>
@@ -4233,14 +4636,14 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F143" s="1"/>
     </row>
@@ -4249,14 +4652,14 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F144" s="1"/>
     </row>
@@ -4265,14 +4668,14 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F145" s="1"/>
     </row>
@@ -4281,11 +4684,11 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -4295,14 +4698,14 @@
         <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F147" s="1"/>
     </row>
@@ -4311,14 +4714,14 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F148" s="1"/>
     </row>
@@ -4327,17 +4730,17 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4345,11 +4748,11 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -4359,17 +4762,17 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4377,14 +4780,14 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F152" s="3"/>
     </row>
@@ -4393,11 +4796,11 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="3"/>
@@ -4407,14 +4810,14 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F154" s="3"/>
     </row>
@@ -4423,14 +4826,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F155" s="3"/>
     </row>
@@ -4439,11 +4842,11 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -4453,11 +4856,11 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
@@ -4467,14 +4870,14 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F158" s="3"/>
     </row>
@@ -4483,14 +4886,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F159" s="3"/>
     </row>
@@ -4499,17 +4902,17 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4517,14 +4920,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>425</v>
+        <v>547</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F161" s="3"/>
     </row>
@@ -4533,14 +4936,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="F162" s="3"/>
     </row>
@@ -4549,11 +4952,11 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -4563,14 +4966,14 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F164" s="3"/>
     </row>
@@ -4579,17 +4982,17 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4597,14 +5000,14 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F166" s="3"/>
     </row>
@@ -4613,14 +5016,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F167" s="3"/>
     </row>
@@ -4629,14 +5032,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F168" s="3"/>
     </row>
@@ -4645,11 +5048,11 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -4659,11 +5062,11 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -4673,11 +5076,11 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -4687,14 +5090,14 @@
         <v>171</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F172" s="1"/>
     </row>
@@ -4703,11 +5106,11 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -4717,14 +5120,14 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F174" s="1"/>
     </row>
@@ -4733,14 +5136,14 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F175" s="1"/>
     </row>
@@ -4749,17 +5152,17 @@
         <v>175</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>354</v>
+        <v>452</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4767,14 +5170,14 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F177" s="1"/>
     </row>
@@ -4783,14 +5186,14 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F178" s="1"/>
     </row>
@@ -4799,14 +5202,14 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F179" s="1"/>
     </row>
@@ -4815,14 +5218,14 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F180" s="1"/>
     </row>
@@ -4831,14 +5234,14 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F181" s="1"/>
     </row>
@@ -4847,14 +5250,14 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F182" s="1"/>
     </row>
@@ -4863,14 +5266,14 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F183" s="1"/>
     </row>
@@ -4879,14 +5282,14 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F184" s="1"/>
     </row>
@@ -4895,11 +5298,11 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -4909,11 +5312,11 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -4923,11 +5326,11 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -4937,11 +5340,11 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -4951,14 +5354,450 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D190" t="s">
+        <v>454</v>
+      </c>
+      <c r="E190" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="D191" t="s">
+        <v>457</v>
+      </c>
+      <c r="E191" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>459</v>
+      </c>
+      <c r="D192" t="s">
+        <v>460</v>
+      </c>
+      <c r="E192" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>462</v>
+      </c>
+      <c r="D193" t="s">
+        <v>463</v>
+      </c>
+      <c r="E193" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D194" t="s">
+        <v>466</v>
+      </c>
+      <c r="E194" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>468</v>
+      </c>
+      <c r="D195" t="s">
+        <v>469</v>
+      </c>
+      <c r="E195" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>471</v>
+      </c>
+      <c r="D196" t="s">
+        <v>472</v>
+      </c>
+      <c r="E196" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="D197" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>476</v>
+      </c>
+      <c r="D198" t="s">
+        <v>477</v>
+      </c>
+      <c r="E198" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>479</v>
+      </c>
+      <c r="D199" t="s">
+        <v>480</v>
+      </c>
+      <c r="E199" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>482</v>
+      </c>
+      <c r="D200" t="s">
+        <v>483</v>
+      </c>
+      <c r="E200" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>485</v>
+      </c>
+      <c r="D201" t="s">
+        <v>486</v>
+      </c>
+      <c r="E201" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>488</v>
+      </c>
+      <c r="D202" t="s">
+        <v>489</v>
+      </c>
+      <c r="E202" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>491</v>
+      </c>
+      <c r="D203" t="s">
+        <v>492</v>
+      </c>
+      <c r="E203" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>494</v>
+      </c>
+      <c r="D204" t="s">
+        <v>495</v>
+      </c>
+      <c r="E204" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>543</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
